--- a/biology/Zoologie/Elysia/Elysia.xlsx
+++ b/biology/Zoologie/Elysia/Elysia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elysia est un genre de limaces de mer, des mollusques gastéropodes marins opisthobranches de la famille des plakobranchidés (syn. élysiidés). 
 </t>
@@ -511,7 +523,9 @@
           <t>Photosynthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces de ce genre ont la particularité étonnante d'être capables d'intégrer les chloroplastes des algues qu'elles consomment dans des cellules spécialisées de leurs tissus digestifs (kleptoplastie), et ainsi de produire leur propre photosynthèse, ce qui leur permet de se nourrir partiellement grâce au soleil.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 mars 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 mars 2012) :
 Elysia abei Baba, 1955
 Elysia amakusana Baba, 1955
 Elysia annedupontae Ortea, Caballer, Moro &amp; Espinosa, 2005
@@ -674,7 +690,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après l'article en anglais : synonymes pour Elysia Risso, 1818 :
 Actaeon Rang, 1829 ; Elysiella Verrill, 1872 ; Elysiella Bergh, 1871 ; Pterogasteron Pease, 1860 ; Thridachia P. Fischer, 1883 ; Tridachia Deshayes, 1857 ; Tridachiella MacFarland, 1924.
